--- a/inst/templates/templateProject/ProjectConfiguration.xlsx
+++ b/inst/templates/templateProject/ProjectConfiguration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAC261C-64FB-4C80-9F79-24683929F2B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F40400C-FCD8-4945-90A7-7ED5C941253A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -126,9 +126,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
     <t>Path to the folder with pkml simulation files; relative to the location of this file</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Models</t>
+  </si>
+  <si>
+    <t>Outputs</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -514,7 +514,7 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -626,10 +626,10 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -639,6 +639,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011DB5BA7A27696418C6D2C8B46A68E83" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b6d50ae52c45ae5cf3a9b42a45f9049e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="398d2b5b-77f8-4c5f-a794-3d35ce849315" xmlns:ns3="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f65cf74c317ca0ec831fcb171d38ef6f" ns2:_="" ns3:_="">
     <xsd:import namespace="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
@@ -855,22 +870,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B48AA3D9-A829-4D13-95B1-181AC8A856B4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE7732FB-5A16-4D8D-B2A0-DAE82353628B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CE9E921-488E-4950-83CF-BA07CBEDBDF1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -887,21 +904,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE7732FB-5A16-4D8D-B2A0-DAE82353628B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B48AA3D9-A829-4D13-95B1-181AC8A856B4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>